--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Il18-Il18r1.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Il18-Il18r1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.82795690095625</v>
+        <v>7.053021666666666</v>
       </c>
       <c r="H2">
-        <v>6.82795690095625</v>
+        <v>21.159065</v>
       </c>
       <c r="I2">
-        <v>0.08637929582247884</v>
+        <v>0.08011112358180576</v>
       </c>
       <c r="J2">
-        <v>0.08637929582247884</v>
+        <v>0.08011112358180575</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.381711597969046</v>
+        <v>0.5515783333333334</v>
       </c>
       <c r="N2">
-        <v>0.381711597969046</v>
+        <v>1.654735</v>
       </c>
       <c r="O2">
-        <v>0.04488415314747343</v>
+        <v>0.06037095152961258</v>
       </c>
       <c r="P2">
-        <v>0.04488415314747343</v>
+        <v>0.06037095152961258</v>
       </c>
       <c r="Q2">
-        <v>2.606310339527786</v>
+        <v>3.890293935863889</v>
       </c>
       <c r="R2">
-        <v>2.606310339527786</v>
+        <v>35.012645422775</v>
       </c>
       <c r="S2">
-        <v>0.003877061542467052</v>
+        <v>0.004836384758739999</v>
       </c>
       <c r="T2">
-        <v>0.003877061542467052</v>
+        <v>0.004836384758739999</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,55 +593,55 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.82795690095625</v>
+        <v>7.053021666666666</v>
       </c>
       <c r="H3">
-        <v>6.82795690095625</v>
+        <v>21.159065</v>
       </c>
       <c r="I3">
-        <v>0.08637929582247884</v>
+        <v>0.08011112358180576</v>
       </c>
       <c r="J3">
-        <v>0.08637929582247884</v>
+        <v>0.08011112358180575</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.32134663312567</v>
+        <v>0.1679506666666667</v>
       </c>
       <c r="N3">
-        <v>0.32134663312567</v>
+        <v>0.503852</v>
       </c>
       <c r="O3">
-        <v>0.03778604467713124</v>
+        <v>0.01838241450751834</v>
       </c>
       <c r="P3">
-        <v>0.03778604467713124</v>
+        <v>0.01838241450751834</v>
       </c>
       <c r="Q3">
-        <v>2.194140961249475</v>
+        <v>1.184559690931111</v>
       </c>
       <c r="R3">
-        <v>2.194140961249475</v>
+        <v>10.66103721838</v>
       </c>
       <c r="S3">
-        <v>0.003263931931127322</v>
+        <v>0.001472635880343781</v>
       </c>
       <c r="T3">
-        <v>0.003263931931127322</v>
+        <v>0.00147263588034378</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,60 +655,60 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.82795690095625</v>
+        <v>7.053021666666666</v>
       </c>
       <c r="H4">
-        <v>6.82795690095625</v>
+        <v>21.159065</v>
       </c>
       <c r="I4">
-        <v>0.08637929582247884</v>
+        <v>0.08011112358180576</v>
       </c>
       <c r="J4">
-        <v>0.08637929582247884</v>
+        <v>0.08011112358180575</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.80131516578941</v>
+        <v>0.334542</v>
       </c>
       <c r="N4">
-        <v>7.80131516578941</v>
+        <v>1.003626</v>
       </c>
       <c r="O4">
-        <v>0.9173298021753953</v>
+        <v>0.03661604824933233</v>
       </c>
       <c r="P4">
-        <v>0.9173298021753953</v>
+        <v>0.03661604824933234</v>
       </c>
       <c r="Q4">
-        <v>53.26704372278646</v>
+        <v>2.359531974409999</v>
       </c>
       <c r="R4">
-        <v>53.26704372278646</v>
+        <v>21.23578776969</v>
       </c>
       <c r="S4">
-        <v>0.07923830234888446</v>
+        <v>0.002933352766379625</v>
       </c>
       <c r="T4">
-        <v>0.07923830234888446</v>
+        <v>0.002933352766379625</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,55 +717,55 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>31.0506669061999</v>
+        <v>7.053021666666666</v>
       </c>
       <c r="H5">
-        <v>31.0506669061999</v>
+        <v>21.159065</v>
       </c>
       <c r="I5">
-        <v>0.3928165893666177</v>
+        <v>0.08011112358180576</v>
       </c>
       <c r="J5">
-        <v>0.3928165893666177</v>
+        <v>0.08011112358180575</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.381711597969046</v>
+        <v>8.082414666666667</v>
       </c>
       <c r="N5">
-        <v>0.381711597969046</v>
+        <v>24.247244</v>
       </c>
       <c r="O5">
-        <v>0.04488415314747343</v>
+        <v>0.8846305857135367</v>
       </c>
       <c r="P5">
-        <v>0.04488415314747343</v>
+        <v>0.8846305857135368</v>
       </c>
       <c r="Q5">
-        <v>11.85239968277014</v>
+        <v>57.00544576298444</v>
       </c>
       <c r="R5">
-        <v>11.85239968277014</v>
+        <v>513.0490118668599</v>
       </c>
       <c r="S5">
-        <v>0.01763123995599945</v>
+        <v>0.07086875017634235</v>
       </c>
       <c r="T5">
-        <v>0.01763123995599945</v>
+        <v>0.07086875017634235</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,55 +779,55 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>31.0506669061999</v>
+        <v>35.63076933333333</v>
       </c>
       <c r="H6">
-        <v>31.0506669061999</v>
+        <v>106.892308</v>
       </c>
       <c r="I6">
-        <v>0.3928165893666177</v>
+        <v>0.4047089460773642</v>
       </c>
       <c r="J6">
-        <v>0.3928165893666177</v>
+        <v>0.4047089460773642</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.32134663312567</v>
+        <v>0.5515783333333334</v>
       </c>
       <c r="N6">
-        <v>0.32134663312567</v>
+        <v>1.654735</v>
       </c>
       <c r="O6">
-        <v>0.03778604467713124</v>
+        <v>0.06037095152961258</v>
       </c>
       <c r="P6">
-        <v>0.03778604467713124</v>
+        <v>0.06037095152961258</v>
       </c>
       <c r="Q6">
-        <v>9.978027266614003</v>
+        <v>19.65316036426445</v>
       </c>
       <c r="R6">
-        <v>9.978027266614003</v>
+        <v>176.87844327838</v>
       </c>
       <c r="S6">
-        <v>0.01484298519572534</v>
+        <v>0.02443266416723715</v>
       </c>
       <c r="T6">
-        <v>0.01484298519572534</v>
+        <v>0.02443266416723714</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,122 +841,122 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>31.0506669061999</v>
+        <v>35.63076933333333</v>
       </c>
       <c r="H7">
-        <v>31.0506669061999</v>
+        <v>106.892308</v>
       </c>
       <c r="I7">
-        <v>0.3928165893666177</v>
+        <v>0.4047089460773642</v>
       </c>
       <c r="J7">
-        <v>0.3928165893666177</v>
+        <v>0.4047089460773642</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>7.80131516578941</v>
+        <v>0.1679506666666667</v>
       </c>
       <c r="N7">
-        <v>7.80131516578941</v>
+        <v>0.503852</v>
       </c>
       <c r="O7">
-        <v>0.9173298021753953</v>
+        <v>0.01838241450751834</v>
       </c>
       <c r="P7">
-        <v>0.9173298021753953</v>
+        <v>0.01838241450751834</v>
       </c>
       <c r="Q7">
-        <v>242.2360386432126</v>
+        <v>5.984211463379555</v>
       </c>
       <c r="R7">
-        <v>242.2360386432126</v>
+        <v>53.85790317041599</v>
       </c>
       <c r="S7">
-        <v>0.3603423642148929</v>
+        <v>0.007439527601694996</v>
       </c>
       <c r="T7">
-        <v>0.3603423642148929</v>
+        <v>0.007439527601694996</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>31.9144913797347</v>
+        <v>35.63076933333333</v>
       </c>
       <c r="H8">
-        <v>31.9144913797347</v>
+        <v>106.892308</v>
       </c>
       <c r="I8">
-        <v>0.4037446826191849</v>
+        <v>0.4047089460773642</v>
       </c>
       <c r="J8">
-        <v>0.4037446826191849</v>
+        <v>0.4047089460773642</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.381711597969046</v>
+        <v>0.334542</v>
       </c>
       <c r="N8">
-        <v>0.381711597969046</v>
+        <v>1.003626</v>
       </c>
       <c r="O8">
-        <v>0.04488415314747343</v>
+        <v>0.03661604824933233</v>
       </c>
       <c r="P8">
-        <v>0.04488415314747343</v>
+        <v>0.03661604824933234</v>
       </c>
       <c r="Q8">
-        <v>12.18213150292788</v>
+        <v>11.919988834312</v>
       </c>
       <c r="R8">
-        <v>12.18213150292788</v>
+        <v>107.279899508808</v>
       </c>
       <c r="S8">
-        <v>0.01812173816715755</v>
+        <v>0.01481884229650521</v>
       </c>
       <c r="T8">
-        <v>0.01812173816715755</v>
+        <v>0.01481884229650521</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,55 +965,55 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>31.9144913797347</v>
+        <v>35.63076933333333</v>
       </c>
       <c r="H9">
-        <v>31.9144913797347</v>
+        <v>106.892308</v>
       </c>
       <c r="I9">
-        <v>0.4037446826191849</v>
+        <v>0.4047089460773642</v>
       </c>
       <c r="J9">
-        <v>0.4037446826191849</v>
+        <v>0.4047089460773642</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.32134663312567</v>
+        <v>8.082414666666667</v>
       </c>
       <c r="N9">
-        <v>0.32134663312567</v>
+        <v>24.247244</v>
       </c>
       <c r="O9">
-        <v>0.03778604467713124</v>
+        <v>0.8846305857135367</v>
       </c>
       <c r="P9">
-        <v>0.03778604467713124</v>
+        <v>0.8846305857135368</v>
       </c>
       <c r="Q9">
-        <v>10.25561435279596</v>
+        <v>287.9826526443503</v>
       </c>
       <c r="R9">
-        <v>10.25561435279596</v>
+        <v>2591.843873799152</v>
       </c>
       <c r="S9">
-        <v>0.01525591461560269</v>
+        <v>0.3580179120119268</v>
       </c>
       <c r="T9">
-        <v>0.01525591461560269</v>
+        <v>0.3580179120119268</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>31.9144913797347</v>
+        <v>33.64714066666667</v>
       </c>
       <c r="H10">
-        <v>31.9144913797347</v>
+        <v>100.941422</v>
       </c>
       <c r="I10">
-        <v>0.4037446826191849</v>
+        <v>0.3821780750881576</v>
       </c>
       <c r="J10">
-        <v>0.4037446826191849</v>
+        <v>0.3821780750881575</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.80131516578941</v>
+        <v>0.5515783333333334</v>
       </c>
       <c r="N10">
-        <v>7.80131516578941</v>
+        <v>1.654735</v>
       </c>
       <c r="O10">
-        <v>0.9173298021753953</v>
+        <v>0.06037095152961258</v>
       </c>
       <c r="P10">
-        <v>0.9173298021753953</v>
+        <v>0.06037095152961258</v>
       </c>
       <c r="Q10">
-        <v>248.9750056091797</v>
+        <v>18.55903377035222</v>
       </c>
       <c r="R10">
-        <v>248.9750056091797</v>
+        <v>167.03130393317</v>
       </c>
       <c r="S10">
-        <v>0.3703670298364246</v>
+        <v>0.0230724540468278</v>
       </c>
       <c r="T10">
-        <v>0.3703670298364246</v>
+        <v>0.02307245404682779</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,60 +1089,60 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>7.54711793451305</v>
+        <v>33.64714066666667</v>
       </c>
       <c r="H11">
-        <v>7.54711793451305</v>
+        <v>100.941422</v>
       </c>
       <c r="I11">
-        <v>0.09547727704331849</v>
+        <v>0.3821780750881576</v>
       </c>
       <c r="J11">
-        <v>0.09547727704331849</v>
+        <v>0.3821780750881575</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.381711597969046</v>
+        <v>0.1679506666666667</v>
       </c>
       <c r="N11">
-        <v>0.381711597969046</v>
+        <v>0.503852</v>
       </c>
       <c r="O11">
-        <v>0.04488415314747343</v>
+        <v>0.01838241450751834</v>
       </c>
       <c r="P11">
-        <v>0.04488415314747343</v>
+        <v>0.01838241450751834</v>
       </c>
       <c r="Q11">
-        <v>2.880822446843823</v>
+        <v>5.651059706393777</v>
       </c>
       <c r="R11">
-        <v>2.880822446843823</v>
+        <v>50.85953735754399</v>
       </c>
       <c r="S11">
-        <v>0.004285416724916056</v>
+        <v>0.00702535579195598</v>
       </c>
       <c r="T11">
-        <v>0.004285416724916056</v>
+        <v>0.007025355791955978</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
@@ -1154,57 +1154,57 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>7.54711793451305</v>
+        <v>33.64714066666667</v>
       </c>
       <c r="H12">
-        <v>7.54711793451305</v>
+        <v>100.941422</v>
       </c>
       <c r="I12">
-        <v>0.09547727704331849</v>
+        <v>0.3821780750881576</v>
       </c>
       <c r="J12">
-        <v>0.09547727704331849</v>
+        <v>0.3821780750881575</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.32134663312567</v>
+        <v>0.334542</v>
       </c>
       <c r="N12">
-        <v>0.32134663312567</v>
+        <v>1.003626</v>
       </c>
       <c r="O12">
-        <v>0.03778604467713124</v>
+        <v>0.03661604824933233</v>
       </c>
       <c r="P12">
-        <v>0.03778604467713124</v>
+        <v>0.03661604824933234</v>
       </c>
       <c r="Q12">
-        <v>2.425240938058129</v>
+        <v>11.256381732908</v>
       </c>
       <c r="R12">
-        <v>2.425240938058129</v>
+        <v>101.307435596172</v>
       </c>
       <c r="S12">
-        <v>0.00360770865600967</v>
+        <v>0.01399385083726493</v>
       </c>
       <c r="T12">
-        <v>0.00360770865600967</v>
+        <v>0.01399385083726493</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1216,57 +1216,57 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>7.54711793451305</v>
+        <v>33.64714066666667</v>
       </c>
       <c r="H13">
-        <v>7.54711793451305</v>
+        <v>100.941422</v>
       </c>
       <c r="I13">
-        <v>0.09547727704331849</v>
+        <v>0.3821780750881576</v>
       </c>
       <c r="J13">
-        <v>0.09547727704331849</v>
+        <v>0.3821780750881575</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>7.80131516578941</v>
+        <v>8.082414666666667</v>
       </c>
       <c r="N13">
-        <v>7.80131516578941</v>
+        <v>24.247244</v>
       </c>
       <c r="O13">
-        <v>0.9173298021753953</v>
+        <v>0.8846305857135367</v>
       </c>
       <c r="P13">
-        <v>0.9173298021753953</v>
+        <v>0.8846305857135368</v>
       </c>
       <c r="Q13">
-        <v>58.87744560051791</v>
+        <v>271.9501432156631</v>
       </c>
       <c r="R13">
-        <v>58.87744560051791</v>
+        <v>2447.551288940967</v>
       </c>
       <c r="S13">
-        <v>0.08758415166239275</v>
+        <v>0.3380864144121088</v>
       </c>
       <c r="T13">
-        <v>0.08758415166239275</v>
+        <v>0.3380864144121088</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1278,57 +1278,57 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.70598780390472</v>
+        <v>8.048222000000001</v>
       </c>
       <c r="H14">
-        <v>1.70598780390472</v>
+        <v>24.144666</v>
       </c>
       <c r="I14">
-        <v>0.02158215514840009</v>
+        <v>0.09141501865831142</v>
       </c>
       <c r="J14">
-        <v>0.02158215514840009</v>
+        <v>0.09141501865831139</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.381711597969046</v>
+        <v>0.5515783333333334</v>
       </c>
       <c r="N14">
-        <v>0.381711597969046</v>
+        <v>1.654735</v>
       </c>
       <c r="O14">
-        <v>0.04488415314747343</v>
+        <v>0.06037095152961258</v>
       </c>
       <c r="P14">
-        <v>0.04488415314747343</v>
+        <v>0.06037095152961258</v>
       </c>
       <c r="Q14">
-        <v>0.6511953307441742</v>
+        <v>4.439224877056668</v>
       </c>
       <c r="R14">
-        <v>0.6511953307441742</v>
+        <v>39.95302389351</v>
       </c>
       <c r="S14">
-        <v>0.0009686967569333217</v>
+        <v>0.005518811660499548</v>
       </c>
       <c r="T14">
-        <v>0.0009686967569333217</v>
+        <v>0.005518811660499547</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1337,117 +1337,427 @@
         <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.70598780390472</v>
+        <v>8.048222000000001</v>
       </c>
       <c r="H15">
-        <v>1.70598780390472</v>
+        <v>24.144666</v>
       </c>
       <c r="I15">
-        <v>0.02158215514840009</v>
+        <v>0.09141501865831142</v>
       </c>
       <c r="J15">
-        <v>0.02158215514840009</v>
+        <v>0.09141501865831139</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M15">
-        <v>0.32134663312567</v>
+        <v>0.1679506666666667</v>
       </c>
       <c r="N15">
-        <v>0.32134663312567</v>
+        <v>0.503852</v>
       </c>
       <c r="O15">
-        <v>0.03778604467713124</v>
+        <v>0.01838241450751834</v>
       </c>
       <c r="P15">
-        <v>0.03778604467713124</v>
+        <v>0.01838241450751834</v>
       </c>
       <c r="Q15">
-        <v>0.5482134369382375</v>
+        <v>1.351704250381333</v>
       </c>
       <c r="R15">
-        <v>0.5482134369382375</v>
+        <v>12.165338253432</v>
       </c>
       <c r="S15">
-        <v>0.0008155042786662238</v>
+        <v>0.001680428765189603</v>
       </c>
       <c r="T15">
-        <v>0.0008155042786662238</v>
+        <v>0.001680428765189603</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>8.048222000000001</v>
+      </c>
+      <c r="H16">
+        <v>24.144666</v>
+      </c>
+      <c r="I16">
+        <v>0.09141501865831142</v>
+      </c>
+      <c r="J16">
+        <v>0.09141501865831139</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.334542</v>
+      </c>
+      <c r="N16">
+        <v>1.003626</v>
+      </c>
+      <c r="O16">
+        <v>0.03661604824933233</v>
+      </c>
+      <c r="P16">
+        <v>0.03661604824933234</v>
+      </c>
+      <c r="Q16">
+        <v>2.692468284324</v>
+      </c>
+      <c r="R16">
+        <v>24.232214558916</v>
+      </c>
+      <c r="S16">
+        <v>0.003347256733906346</v>
+      </c>
+      <c r="T16">
+        <v>0.003347256733906346</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>8.048222000000001</v>
+      </c>
+      <c r="H17">
+        <v>24.144666</v>
+      </c>
+      <c r="I17">
+        <v>0.09141501865831142</v>
+      </c>
+      <c r="J17">
+        <v>0.09141501865831139</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>8.082414666666667</v>
+      </c>
+      <c r="N17">
+        <v>24.247244</v>
+      </c>
+      <c r="O17">
+        <v>0.8846305857135367</v>
+      </c>
+      <c r="P17">
+        <v>0.8846305857135368</v>
+      </c>
+      <c r="Q17">
+        <v>65.04906753338935</v>
+      </c>
+      <c r="R17">
+        <v>585.441607800504</v>
+      </c>
+      <c r="S17">
+        <v>0.08086852149871591</v>
+      </c>
+      <c r="T17">
+        <v>0.0808685214987159</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
         <v>24</v>
       </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>3.661325</v>
+      </c>
+      <c r="H18">
+        <v>10.983975</v>
+      </c>
+      <c r="I18">
+        <v>0.04158683659436109</v>
+      </c>
+      <c r="J18">
+        <v>0.04158683659436108</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0.5515783333333334</v>
+      </c>
+      <c r="N18">
+        <v>1.654735</v>
+      </c>
+      <c r="O18">
+        <v>0.06037095152961258</v>
+      </c>
+      <c r="P18">
+        <v>0.06037095152961258</v>
+      </c>
+      <c r="Q18">
+        <v>2.019507541291667</v>
+      </c>
+      <c r="R18">
+        <v>18.175567871625</v>
+      </c>
+      <c r="S18">
+        <v>0.002510636896308092</v>
+      </c>
+      <c r="T18">
+        <v>0.002510636896308092</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>3.661325</v>
+      </c>
+      <c r="H19">
+        <v>10.983975</v>
+      </c>
+      <c r="I19">
+        <v>0.04158683659436109</v>
+      </c>
+      <c r="J19">
+        <v>0.04158683659436108</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M19">
+        <v>0.1679506666666667</v>
+      </c>
+      <c r="N19">
+        <v>0.503852</v>
+      </c>
+      <c r="O19">
+        <v>0.01838241450751834</v>
+      </c>
+      <c r="P19">
+        <v>0.01838241450751834</v>
+      </c>
+      <c r="Q19">
+        <v>0.6149219746333333</v>
+      </c>
+      <c r="R19">
+        <v>5.534297771699999</v>
+      </c>
+      <c r="S19">
+        <v>0.0007644664683339777</v>
+      </c>
+      <c r="T19">
+        <v>0.0007644664683339776</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>3.661325</v>
+      </c>
+      <c r="H20">
+        <v>10.983975</v>
+      </c>
+      <c r="I20">
+        <v>0.04158683659436109</v>
+      </c>
+      <c r="J20">
+        <v>0.04158683659436108</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0.334542</v>
+      </c>
+      <c r="N20">
+        <v>1.003626</v>
+      </c>
+      <c r="O20">
+        <v>0.03661604824933233</v>
+      </c>
+      <c r="P20">
+        <v>0.03661604824933234</v>
+      </c>
+      <c r="Q20">
+        <v>1.22486698815</v>
+      </c>
+      <c r="R20">
+        <v>11.02380289335</v>
+      </c>
+      <c r="S20">
+        <v>0.001522745615276225</v>
+      </c>
+      <c r="T20">
+        <v>0.001522745615276225</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>23</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>1.70598780390472</v>
-      </c>
-      <c r="H16">
-        <v>1.70598780390472</v>
-      </c>
-      <c r="I16">
-        <v>0.02158215514840009</v>
-      </c>
-      <c r="J16">
-        <v>0.02158215514840009</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>7.80131516578941</v>
-      </c>
-      <c r="N16">
-        <v>7.80131516578941</v>
-      </c>
-      <c r="O16">
-        <v>0.9173298021753953</v>
-      </c>
-      <c r="P16">
-        <v>0.9173298021753953</v>
-      </c>
-      <c r="Q16">
-        <v>13.30894852725366</v>
-      </c>
-      <c r="R16">
-        <v>13.30894852725366</v>
-      </c>
-      <c r="S16">
-        <v>0.01979795411280054</v>
-      </c>
-      <c r="T16">
-        <v>0.01979795411280054</v>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>3.661325</v>
+      </c>
+      <c r="H21">
+        <v>10.983975</v>
+      </c>
+      <c r="I21">
+        <v>0.04158683659436109</v>
+      </c>
+      <c r="J21">
+        <v>0.04158683659436108</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>8.082414666666667</v>
+      </c>
+      <c r="N21">
+        <v>24.247244</v>
+      </c>
+      <c r="O21">
+        <v>0.8846305857135367</v>
+      </c>
+      <c r="P21">
+        <v>0.8846305857135368</v>
+      </c>
+      <c r="Q21">
+        <v>29.59234687943333</v>
+      </c>
+      <c r="R21">
+        <v>266.3311219148999</v>
+      </c>
+      <c r="S21">
+        <v>0.03678898761444279</v>
+      </c>
+      <c r="T21">
+        <v>0.03678898761444279</v>
       </c>
     </row>
   </sheetData>
